--- a/wikipedia_validation_sheets/Tethered spinal cord syndrome DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Tethered spinal cord syndrome DISNET VALIDATION.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8257698A-6C86-E045-85B5-7967C72D6432}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A260B77-8E6D-D144-881B-D17D97EEB36A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17620" windowHeight="7120" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="167">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -369,9 +375,6 @@
     <t>DIMPLES</t>
   </si>
   <si>
-    <t>fatty tumours on the lower back</t>
-  </si>
-  <si>
     <t>Foot and spinal deformities</t>
   </si>
   <si>
@@ -381,18 +384,12 @@
     <t>WEAKNESS IN THE LEGS</t>
   </si>
   <si>
-    <t>SCOLIOSIS</t>
-  </si>
-  <si>
     <t>Loss of feeling and movement in lower extremities</t>
   </si>
   <si>
     <t>Bowel control issues</t>
   </si>
   <si>
-    <t>AMYOTROPHY</t>
-  </si>
-  <si>
     <t>pathologic plantar response</t>
   </si>
   <si>
@@ -406,6 +403,135 @@
   </si>
   <si>
     <t>FPREAL</t>
+  </si>
+  <si>
+    <t>tumour</t>
+  </si>
+  <si>
+    <t>Neoplasms</t>
+  </si>
+  <si>
+    <t>[neop]</t>
+  </si>
+  <si>
+    <t>feeling</t>
+  </si>
+  <si>
+    <t>Feelings</t>
+  </si>
+  <si>
+    <t>[menp]</t>
+  </si>
+  <si>
+    <t>sinus, tract</t>
+  </si>
+  <si>
+    <t>Inflammatory fistula</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>amyotrophy</t>
+  </si>
+  <si>
+    <t>Muscular atrophy</t>
+  </si>
+  <si>
+    <t>bone, spur</t>
+  </si>
+  <si>
+    <t>Exostosis NOS</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>Obstruction</t>
+  </si>
+  <si>
+    <t>fatty, tumours</t>
+  </si>
+  <si>
+    <t>Lipomatous neoplasm</t>
+  </si>
+  <si>
+    <t>tcs</t>
+  </si>
+  <si>
+    <t>Mandibulofacial dysostosis</t>
+  </si>
+  <si>
+    <t>[cgab]</t>
+  </si>
+  <si>
+    <t>dysfunction</t>
+  </si>
+  <si>
+    <t>Functional disorder</t>
+  </si>
+  <si>
+    <t>spinal, stenosis</t>
+  </si>
+  <si>
+    <t>Spinal stenosis NOS</t>
+  </si>
+  <si>
+    <t>[acab]</t>
+  </si>
+  <si>
+    <t>scoliosis</t>
+  </si>
+  <si>
+    <t>Acquired scoliosis</t>
+  </si>
+  <si>
+    <t>spina, bifida, occulta</t>
+  </si>
+  <si>
+    <t>Spina bifida occulta</t>
+  </si>
+  <si>
+    <t>lipoma</t>
+  </si>
+  <si>
+    <t>Lipoma</t>
+  </si>
+  <si>
+    <t>congenital, deformity</t>
+  </si>
+  <si>
+    <t>Congenital abnormality</t>
+  </si>
+  <si>
+    <t>bladder, dysfunction</t>
+  </si>
+  <si>
+    <t>Bladder dysfunction</t>
+  </si>
+  <si>
+    <t>spinal, deformities</t>
+  </si>
+  <si>
+    <t>Deformity of spine</t>
+  </si>
+  <si>
+    <t>[anab]</t>
+  </si>
+  <si>
+    <t>spinal, tumour</t>
+  </si>
+  <si>
+    <t>Neoplasm of spinal cord</t>
+  </si>
+  <si>
+    <t>Emotions</t>
+  </si>
+  <si>
+    <t>spina, bifida</t>
+  </si>
+  <si>
+    <t>Spina bifida NOS</t>
   </si>
 </sst>
 </file>
@@ -911,8 +1037,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -939,7 +1067,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1260,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF501930-A237-4EA3-A3D6-166E67897307}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1418,7 +1556,7 @@
         <v>11</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1505,7 +1643,7 @@
         <v>11</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1563,7 +1701,7 @@
         <v>11</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1853,7 +1991,7 @@
         <v>11</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2668,295 +2806,900 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="27"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="29"/>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="23" t="s">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E62" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E65" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="27"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="29"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B70" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="24" t="s">
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="9" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B71" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="10" t="s">
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="45" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B72" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="10" t="s">
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="10" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B73" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="9" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B74" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B75" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" s="10" t="s">
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="9" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="10" t="s">
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" s="10" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="10" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" s="10" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="10" t="s">
+    <row r="80" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I64" s="26" t="s">
-        <v>13</v>
-      </c>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="48"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="48"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="48"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="48"/>
+      <c r="E83" s="48"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="48"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="48"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="48"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="48"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B87" s="48"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="48"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="48"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="48"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="48"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="48"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="48"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="48"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="48"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B92" s="48"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="48"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="48"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="48"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B94" s="48"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="48"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="48"/>
+      <c r="C95" s="48"/>
+      <c r="D95" s="48"/>
+      <c r="E95" s="48"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="48"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="48"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" s="48"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="48"/>
+      <c r="E97" s="48"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="48"/>
+      <c r="C98" s="48"/>
+      <c r="D98" s="48"/>
+      <c r="E98" s="48"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="48"/>
+      <c r="C99" s="48"/>
+      <c r="D99" s="48"/>
+      <c r="E99" s="48"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" s="48"/>
+      <c r="C100" s="48"/>
+      <c r="D100" s="48"/>
+      <c r="E100" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2964,11 +3707,14 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:I2"/>
   </mergeCells>
+  <conditionalFormatting sqref="C50:C68">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C4:C49">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B54" r:id="rId1" location="cite_note-Yamada44-3" display="https://en.wikipedia.org/wiki/Tethered_spinal_cord_syndrome - cite_note-Yamada44-3" xr:uid="{2167885C-DF4E-4508-A0F6-91A5C427BF0B}"/>
+    <hyperlink ref="B72" r:id="rId1" location="cite_note-Yamada44-3" display="https://en.wikipedia.org/wiki/Tethered_spinal_cord_syndrome - cite_note-Yamada44-3" xr:uid="{2167885C-DF4E-4508-A0F6-91A5C427BF0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
